--- a/data/interim/Impacts_total.xlsx
+++ b/data/interim/Impacts_total.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,17 +441,32 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Recipe Rice and Beef</t>
+          <t>Recipe Lomo Saltado with beef</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Recipe Rice and chicken</t>
+          <t>Recipe Lomo Saltado with chicken</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Recipe Rice and Soy tofu</t>
+          <t>Recipe Lomo Saltado with chickpeas</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Recipe Lomo Saltado with mushrooms</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Recipe Lomo Saltado with salmon</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Recipe Lomo Saltado with tofu</t>
         </is>
       </c>
     </row>
@@ -462,13 +477,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.09084095</v>
+        <v>0.107303026</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03401145000000001</v>
+        <v>0.050473526</v>
       </c>
       <c r="D2" t="n">
-        <v>0.00755775</v>
+        <v>0.029880226</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.023592126</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.032551076</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.024019826</v>
       </c>
     </row>
     <row r="3">
@@ -478,13 +502,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.08669285</v>
+        <v>0.103184908</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01939835</v>
+        <v>0.035890408</v>
       </c>
       <c r="D3" t="n">
-        <v>0.00846015</v>
+        <v>0.029265608</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.023282358</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.06432790799999999</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.024952208</v>
       </c>
     </row>
     <row r="4">
@@ -494,13 +527,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>788.7049999999999</v>
+        <v>1432.1124</v>
       </c>
       <c r="C4" t="n">
-        <v>575.3099999999999</v>
+        <v>1218.7174</v>
       </c>
       <c r="D4" t="n">
-        <v>455.645</v>
+        <v>1201.4274</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1073.5724</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1634.1324</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1099.0524</v>
       </c>
     </row>
     <row r="5">
@@ -510,13 +552,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>18284.165</v>
+        <v>40831.37280000001</v>
       </c>
       <c r="C5" t="n">
-        <v>12671.74</v>
+        <v>35218.94780000002</v>
       </c>
       <c r="D5" t="n">
-        <v>10832.175</v>
+        <v>39697.05780000002</v>
+      </c>
+      <c r="E5" t="n">
+        <v>33003.0978</v>
+      </c>
+      <c r="F5" t="n">
+        <v>37431.61280000001</v>
+      </c>
+      <c r="G5" t="n">
+        <v>33379.38280000001</v>
       </c>
     </row>
     <row r="6">
@@ -526,13 +577,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>27.87215</v>
+        <v>31.6705648</v>
       </c>
       <c r="C6" t="n">
-        <v>3.53966</v>
+        <v>7.3380748</v>
       </c>
       <c r="D6" t="n">
-        <v>2.074105</v>
+        <v>5.2987648</v>
+      </c>
+      <c r="E6" t="n">
+        <v>4.773239800000001</v>
+      </c>
+      <c r="F6" t="n">
+        <v>6.924479800000001</v>
+      </c>
+      <c r="G6" t="n">
+        <v>5.872519799999999</v>
       </c>
     </row>
     <row r="7">
@@ -542,13 +602,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>88.59823</v>
+        <v>93.2142344</v>
       </c>
       <c r="C7" t="n">
-        <v>3.88815</v>
+        <v>8.504154400000001</v>
       </c>
       <c r="D7" t="n">
-        <v>1.91527</v>
+        <v>11.2933044</v>
+      </c>
+      <c r="E7" t="n">
+        <v>5.2372544</v>
+      </c>
+      <c r="F7" t="n">
+        <v>6.633194400000001</v>
+      </c>
+      <c r="G7" t="n">
+        <v>6.531274400000001</v>
       </c>
     </row>
   </sheetData>

--- a/data/interim/Impacts_total.xlsx
+++ b/data/interim/Impacts_total.xlsx
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Impacts_labels</t>
+          <t>impacts_labels</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">

--- a/data/interim/Impacts_total.xlsx
+++ b/data/interim/Impacts_total.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,32 +441,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Recipe Lomo Saltado with beef</t>
+          <t>Recipe Chicken in creme freice</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Recipe Lomo Saltado with chicken</t>
+          <t>Recipe Chilli con carne</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Recipe Lomo Saltado with chickpeas</t>
+          <t>Recipe Kylling og søtpotet</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Recipe Lomo Saltado with mushrooms</t>
+          <t>Recipe Meeeeeat</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Recipe Lomo Saltado with salmon</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Recipe Lomo Saltado with tofu</t>
+          <t>Recipe Porrige</t>
         </is>
       </c>
     </row>
@@ -477,22 +472,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.107303026</v>
+        <v>0.07090242000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>0.050473526</v>
+        <v>0.09367762000000002</v>
       </c>
       <c r="D2" t="n">
-        <v>0.029880226</v>
+        <v>0.06318120000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>0.023592126</v>
+        <v>0.3644722</v>
       </c>
       <c r="F2" t="n">
-        <v>0.032551076</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.024019826</v>
+        <v>0.02128775</v>
       </c>
     </row>
     <row r="3">
@@ -502,22 +494,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.103184908</v>
+        <v>0.036352752</v>
       </c>
       <c r="C3" t="n">
-        <v>0.035890408</v>
+        <v>0.070164752</v>
       </c>
       <c r="D3" t="n">
-        <v>0.029265608</v>
+        <v>0.03232159999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>0.023282358</v>
+        <v>0.3354869999999999</v>
       </c>
       <c r="F3" t="n">
-        <v>0.06432790799999999</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.024952208</v>
+        <v>0.01837625</v>
       </c>
     </row>
     <row r="4">
@@ -527,22 +516,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1432.1124</v>
+        <v>844.6276000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>1218.7174</v>
+        <v>1321.8376</v>
       </c>
       <c r="D4" t="n">
-        <v>1201.4274</v>
+        <v>462.52</v>
       </c>
       <c r="E4" t="n">
-        <v>1073.5724</v>
+        <v>2044.39</v>
       </c>
       <c r="F4" t="n">
-        <v>1634.1324</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1099.0524</v>
+        <v>646.3399999999999</v>
       </c>
     </row>
     <row r="5">
@@ -552,22 +538,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>40831.37280000001</v>
+        <v>29224.90480000001</v>
       </c>
       <c r="C5" t="n">
-        <v>35218.94780000002</v>
+        <v>37519.82480000001</v>
       </c>
       <c r="D5" t="n">
-        <v>39697.05780000002</v>
+        <v>15544.88</v>
       </c>
       <c r="E5" t="n">
-        <v>33003.0978</v>
+        <v>59785.87000000001</v>
       </c>
       <c r="F5" t="n">
-        <v>37431.61280000001</v>
-      </c>
-      <c r="G5" t="n">
-        <v>33379.38280000001</v>
+        <v>23344.01</v>
       </c>
     </row>
     <row r="6">
@@ -577,22 +560,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>31.6705648</v>
+        <v>7.9744924</v>
       </c>
       <c r="C6" t="n">
-        <v>7.3380748</v>
+        <v>17.5627824</v>
       </c>
       <c r="D6" t="n">
-        <v>5.2987648</v>
+        <v>6.32596</v>
       </c>
       <c r="E6" t="n">
-        <v>4.773239800000001</v>
+        <v>110.73899</v>
       </c>
       <c r="F6" t="n">
-        <v>6.924479800000001</v>
-      </c>
-      <c r="G6" t="n">
-        <v>5.872519799999999</v>
+        <v>5.075285</v>
       </c>
     </row>
     <row r="7">
@@ -602,22 +582,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>93.2142344</v>
+        <v>12.1432608</v>
       </c>
       <c r="C7" t="n">
-        <v>8.504154400000001</v>
+        <v>23.6602708</v>
       </c>
       <c r="D7" t="n">
-        <v>11.2933044</v>
+        <v>7.74464</v>
       </c>
       <c r="E7" t="n">
-        <v>5.2372544</v>
+        <v>354.65746</v>
       </c>
       <c r="F7" t="n">
-        <v>6.633194400000001</v>
-      </c>
-      <c r="G7" t="n">
-        <v>6.531274400000001</v>
+        <v>10.51516</v>
       </c>
     </row>
   </sheetData>

--- a/data/interim/Impacts_total.xlsx
+++ b/data/interim/Impacts_total.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,27 +441,32 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Recipe Chicken in creme freice</t>
+          <t>Recipe Lomo Saltado with beef</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Recipe Chilli con carne</t>
+          <t>Recipe Lomo Saltado with chicken</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Recipe Kylling og søtpotet</t>
+          <t>Recipe Lomo Saltado with chickpeas</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Recipe Meeeeeat</t>
+          <t>Recipe Lomo Saltado with mushrooms</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Recipe Porrige</t>
+          <t>Recipe Lomo Saltado with salmon</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Recipe Lomo Saltado with tofu</t>
         </is>
       </c>
     </row>
@@ -472,19 +477,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.07090242000000001</v>
+        <v>0.107303026</v>
       </c>
       <c r="C2" t="n">
-        <v>0.09367762000000002</v>
+        <v>0.050473526</v>
       </c>
       <c r="D2" t="n">
-        <v>0.06318120000000001</v>
+        <v>0.029880226</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3644722</v>
+        <v>0.023592126</v>
       </c>
       <c r="F2" t="n">
-        <v>0.02128775</v>
+        <v>0.032551076</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.024019826</v>
       </c>
     </row>
     <row r="3">
@@ -494,19 +502,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.036352752</v>
+        <v>0.103184908</v>
       </c>
       <c r="C3" t="n">
-        <v>0.070164752</v>
+        <v>0.035890408</v>
       </c>
       <c r="D3" t="n">
-        <v>0.03232159999999999</v>
+        <v>0.029265608</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3354869999999999</v>
+        <v>0.023282358</v>
       </c>
       <c r="F3" t="n">
-        <v>0.01837625</v>
+        <v>0.06432790799999999</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.024952208</v>
       </c>
     </row>
     <row r="4">
@@ -516,19 +527,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>844.6276000000001</v>
+        <v>1432.1124</v>
       </c>
       <c r="C4" t="n">
-        <v>1321.8376</v>
+        <v>1218.7174</v>
       </c>
       <c r="D4" t="n">
-        <v>462.52</v>
+        <v>1201.4274</v>
       </c>
       <c r="E4" t="n">
-        <v>2044.39</v>
+        <v>1073.5724</v>
       </c>
       <c r="F4" t="n">
-        <v>646.3399999999999</v>
+        <v>1634.1324</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1099.0524</v>
       </c>
     </row>
     <row r="5">
@@ -538,19 +552,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>29224.90480000001</v>
+        <v>40831.37280000001</v>
       </c>
       <c r="C5" t="n">
-        <v>37519.82480000001</v>
+        <v>35218.94780000002</v>
       </c>
       <c r="D5" t="n">
-        <v>15544.88</v>
+        <v>39697.05780000002</v>
       </c>
       <c r="E5" t="n">
-        <v>59785.87000000001</v>
+        <v>33003.0978</v>
       </c>
       <c r="F5" t="n">
-        <v>23344.01</v>
+        <v>37431.61280000001</v>
+      </c>
+      <c r="G5" t="n">
+        <v>33379.38280000001</v>
       </c>
     </row>
     <row r="6">
@@ -560,19 +577,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.9744924</v>
+        <v>31.6705648</v>
       </c>
       <c r="C6" t="n">
-        <v>17.5627824</v>
+        <v>7.3380748</v>
       </c>
       <c r="D6" t="n">
-        <v>6.32596</v>
+        <v>5.2987648</v>
       </c>
       <c r="E6" t="n">
-        <v>110.73899</v>
+        <v>4.773239800000001</v>
       </c>
       <c r="F6" t="n">
-        <v>5.075285</v>
+        <v>6.924479800000001</v>
+      </c>
+      <c r="G6" t="n">
+        <v>5.872519799999999</v>
       </c>
     </row>
     <row r="7">
@@ -582,19 +602,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12.1432608</v>
+        <v>93.2142344</v>
       </c>
       <c r="C7" t="n">
-        <v>23.6602708</v>
+        <v>8.504154400000001</v>
       </c>
       <c r="D7" t="n">
-        <v>7.74464</v>
+        <v>11.2933044</v>
       </c>
       <c r="E7" t="n">
-        <v>354.65746</v>
+        <v>5.2372544</v>
       </c>
       <c r="F7" t="n">
-        <v>10.51516</v>
+        <v>6.633194400000001</v>
+      </c>
+      <c r="G7" t="n">
+        <v>6.531274400000001</v>
       </c>
     </row>
   </sheetData>
